--- a/xlscsv/TjP08_FichaEvidencias.xlsx
+++ b/xlscsv/TjP08_FichaEvidencias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t xml:space="preserve"> TjP08 - Jurisprudencia que garantice la protección al trabajador contra decisiones arbitrarias del empleador</t>
   </si>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>Evidencias</t>
+  </si>
+  <si>
+    <t>Nombre de evidencia: Suprema Corte de Justicia de la Nación, Décima Época. Registro: 2006853; Instancia: Tribunales Colegiados de Circuito; Tipo de Tesis: Aislada. Fuente: Semanario Judicial de la Federación y su Gaceta. Libro 7, Junio de 2014, Tomo II. Materia(s): Común. Tesis: (III Región) 4o. 42 A (10a.) Pág. 1911.
+Unidad de observación: Tesis Aislada
+URL: http://200.38.163.178/sjfsist/Paginas/DetalleGeneralV2.aspx?Epoca=1e3e10000000000&amp;Apendice=1000000000000&amp;Expresion=2006853&amp;Dominio=Rubro,Texto,Precedentes,Localizacion&amp;TA_TJ=0&amp;Orden=1&amp;Clase=DetalleTesisBL&amp;NumTE=1&amp;Epp=20&amp;Desde=-100&amp;Hasta=-100&amp;Index=0&amp;InstanciasSeleccionadas=6,1,2,50,7&amp;ID=2006853&amp;Hit=1&amp;IDs=2006853&amp;tipoTesis=&amp;Semanario=0&amp;tabla=&amp;Referencia=&amp;Tema=
+Institución: Suprema Corte de Justicia de la Nación
+Vigencia: 0
+Fecha de acualización: 2017-02-24</t>
   </si>
 </sst>
 </file>
@@ -484,7 +492,9 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
